--- a/_PETRO/Fe-number_counts.xlsx
+++ b/_PETRO/Fe-number_counts.xlsx
@@ -369,7 +369,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Fe-number</t>
+          <t>Fe_number</t>
         </is>
       </c>
     </row>
